--- a/tests/evaluation_results_gdc_True_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_True_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,721 +458,865 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.00266666666667</v>
+        <v>93.07166666666669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01181336343111576</v>
+        <v>0.006871842709361803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.81766666666665</v>
+        <v>92.986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05595732500953042</v>
+        <v>0.05559376463837208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>92.74433333333332</v>
+        <v>92.92966666666668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06770934614627122</v>
+        <v>0.05069407153592008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>91.86833333333333</v>
+        <v>92.49966666666664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1673137438732665</v>
+        <v>0.1031013525075656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>90.34466666666667</v>
+        <v>91.86899999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4016775932123789</v>
+        <v>0.2101324978832825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>87.49566666666666</v>
+        <v>90.86366666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9467829153976572</v>
+        <v>0.4157201248703543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>84.41933333333333</v>
+        <v>89.81833333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>1.556279609267634</v>
+        <v>0.657171126031028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>82.72166666666666</v>
+        <v>89.27299999999998</v>
       </c>
       <c r="D9" t="n">
-        <v>1.853909532732264</v>
+        <v>0.7914044478015011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>78.38333333333334</v>
+        <v>87.87800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>2.521747189725585</v>
+        <v>1.1624755194555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>92.49199999999998</v>
+        <v>92.19533333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009092121131324389</v>
+        <v>0.009910712498213932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>92.27700000000003</v>
+        <v>92.11233333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03616167400255067</v>
+        <v>0.05857663546348689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>92.221</v>
+        <v>92.09666666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05539855593785807</v>
+        <v>0.05906681715556492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3600</v>
       </c>
       <c r="C14" t="n">
-        <v>91.309</v>
+        <v>91.85833333333332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2303815675497205</v>
+        <v>0.08374896350934209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>86400</v>
       </c>
       <c r="C15" t="n">
-        <v>89.64000000000001</v>
+        <v>91.39033333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5714951151730576</v>
+        <v>0.210372421090682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2592000</v>
       </c>
       <c r="C16" t="n">
-        <v>86.60666666666667</v>
+        <v>90.57533333333335</v>
       </c>
       <c r="D16" t="n">
-        <v>1.274122791919557</v>
+        <v>0.3937743290543734</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>31104000</v>
       </c>
       <c r="C17" t="n">
-        <v>83.28299999999999</v>
+        <v>89.76633333333334</v>
       </c>
       <c r="D17" t="n">
-        <v>2.007893008437785</v>
+        <v>0.5934446524786893</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>93312000</v>
       </c>
       <c r="C18" t="n">
-        <v>81.51866666666665</v>
+        <v>89.32199999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>2.365703184162283</v>
+        <v>0.7427938251403722</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1000000000</v>
       </c>
       <c r="C19" t="n">
-        <v>76.94800000000001</v>
+        <v>88.24333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>3.436575233183952</v>
+        <v>1.036041612205912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>90.86166666666665</v>
+        <v>92.30033333333336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008198915917498609</v>
+        <v>0.004068851871909939</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>90.67733333333334</v>
+        <v>92.22366666666669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08266129014774015</v>
+        <v>0.0584513092715259</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>90.60366666666667</v>
+        <v>92.181</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1050550120439555</v>
+        <v>0.06808573027196411</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>3600</v>
       </c>
       <c r="C23" t="n">
-        <v>89.20599999999999</v>
+        <v>91.76900000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3934005592268522</v>
+        <v>0.1025784252819924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>86400</v>
       </c>
       <c r="C24" t="n">
-        <v>87.00333333333333</v>
+        <v>91.24299999999998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.821804248116438</v>
+        <v>0.2574898056234438</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2592000</v>
       </c>
       <c r="C25" t="n">
-        <v>83.49066666666667</v>
+        <v>90.44799999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1.539157633974578</v>
+        <v>0.5149653710040428</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>31104000</v>
       </c>
       <c r="C26" t="n">
-        <v>80.01100000000002</v>
+        <v>89.68533333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>2.09387256855171</v>
+        <v>0.807199823807933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>93312000</v>
       </c>
       <c r="C27" t="n">
-        <v>78.18766666666669</v>
+        <v>89.25833333333334</v>
       </c>
       <c r="D27" t="n">
-        <v>2.389155615600532</v>
+        <v>0.9941699497012011</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1000000000</v>
       </c>
       <c r="C28" t="n">
-        <v>73.79133333333333</v>
+        <v>88.19933333333334</v>
       </c>
       <c r="D28" t="n">
-        <v>3.03175607344801</v>
+        <v>1.341650558909519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>85.47633333333332</v>
+        <v>92.41566666666668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008749603165603664</v>
+        <v>0.00715697018452955</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>84.95299999999999</v>
+        <v>92.34600000000002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1568045492537331</v>
+        <v>0.06327716807822471</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>84.77766666666666</v>
+        <v>92.34099999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2113872171053765</v>
+        <v>0.0639973957803483</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3600</v>
       </c>
       <c r="C32" t="n">
-        <v>82.51599999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6973263224631646</v>
+        <v>0.09654014708917759</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>86400</v>
       </c>
       <c r="C33" t="n">
-        <v>79.35766666666665</v>
+        <v>91.62766666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>1.318025501355047</v>
+        <v>0.1999113692503642</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2592000</v>
       </c>
       <c r="C34" t="n">
-        <v>74.73099999999998</v>
+        <v>90.86899999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>2.241792958028609</v>
+        <v>0.398332775452887</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>31104000</v>
       </c>
       <c r="C35" t="n">
-        <v>70.71199999999999</v>
+        <v>90.13033333333333</v>
       </c>
       <c r="D35" t="n">
-        <v>2.988824071994425</v>
+        <v>0.6279303747674236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>93312000</v>
       </c>
       <c r="C36" t="n">
-        <v>68.77800000000001</v>
+        <v>89.73366666666666</v>
       </c>
       <c r="D36" t="n">
-        <v>3.403609260770101</v>
+        <v>0.7863141159160804</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1000000000</v>
       </c>
       <c r="C37" t="n">
-        <v>64.298</v>
+        <v>88.71366666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>4.210580640877613</v>
+        <v>1.125523532504861</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>51.35299999999999</v>
+        <v>92.41133333333332</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02147091055358447</v>
+        <v>0.006182412330330159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>49.75733333333333</v>
+        <v>92.35500000000002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4323188124007049</v>
+        <v>0.04064070209367128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>49.25666666666665</v>
+        <v>92.333</v>
       </c>
       <c r="D40" t="n">
-        <v>0.568432542660566</v>
+        <v>0.05311308689955815</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>3600</v>
       </c>
       <c r="C41" t="n">
-        <v>45.15766666666666</v>
+        <v>92.15066666666665</v>
       </c>
       <c r="D41" t="n">
-        <v>1.542194720375983</v>
+        <v>0.1283727212282879</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>86400</v>
       </c>
       <c r="C42" t="n">
-        <v>41.38266666666666</v>
+        <v>91.76399999999998</v>
       </c>
       <c r="D42" t="n">
-        <v>2.506527389747727</v>
+        <v>0.2106909268731485</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2592000</v>
       </c>
       <c r="C43" t="n">
-        <v>37.71700000000001</v>
+        <v>91.03700000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>3.248576252247539</v>
+        <v>0.3998512223315074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>31104000</v>
       </c>
       <c r="C44" t="n">
-        <v>35.40133333333333</v>
+        <v>90.31533333333337</v>
       </c>
       <c r="D44" t="n">
-        <v>3.756592190921033</v>
+        <v>0.5822355384397461</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>93312000</v>
       </c>
       <c r="C45" t="n">
-        <v>34.437</v>
+        <v>89.94166666666666</v>
       </c>
       <c r="D45" t="n">
-        <v>3.912671849261065</v>
+        <v>0.6861199279685393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1000000000</v>
       </c>
       <c r="C46" t="n">
-        <v>32.52766666666666</v>
+        <v>88.95999999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>4.179396035580049</v>
+        <v>0.9779877299843783</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92.33300000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.005859465277083211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" t="n">
+        <v>92.253</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.04282911782109707</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>92.23366666666669</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.05706623831614809</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C50" t="n">
+        <v>91.94299999999998</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.08985729426893192</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>86400</v>
+      </c>
+      <c r="C51" t="n">
+        <v>91.44</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2477633279294315</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2592000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>90.64266666666668</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5091098986357347</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>31104000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>89.84266666666666</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7708952948069894</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>93312000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>89.44700000000002</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8915348189124944</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>88.39766666666667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.222725598361664</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_True_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_True_seedtest.xlsx
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.07166666666669</v>
+        <v>93.0626666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006871842709361803</v>
+        <v>0.008137703743820772</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.986</v>
+        <v>92.77800000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05559376463837208</v>
+        <v>0.04614469994845894</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>92.92966666666668</v>
+        <v>92.64666666666669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05069407153592008</v>
+        <v>0.05872724145478651</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>92.49966666666664</v>
+        <v>90.86866666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1031013525075656</v>
+        <v>0.2243618109710791</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>91.86899999999999</v>
+        <v>86.40566666666665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2101324978832825</v>
+        <v>0.821732654551074</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>90.86366666666667</v>
+        <v>76.60499999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4157201248703543</v>
+        <v>1.857259181338636</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>89.81833333333333</v>
+        <v>65.60566666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.657171126031028</v>
+        <v>2.835758197652889</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>89.27299999999998</v>
+        <v>59.665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7914044478015011</v>
+        <v>3.245384158051761</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>87.87800000000001</v>
+        <v>45.82399999999998</v>
       </c>
       <c r="D10" t="n">
-        <v>1.1624755194555</v>
+        <v>3.813543933578493</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>92.19533333333334</v>
+        <v>92.18499999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009910712498213932</v>
+        <v>0.0140830867828539</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>92.11233333333334</v>
+        <v>92.10066666666664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05857663546348689</v>
+        <v>0.06381918903346281</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>92.09666666666666</v>
+        <v>92.06366666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05906681715556492</v>
+        <v>0.06819009377386784</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>3600</v>
       </c>
       <c r="C14" t="n">
-        <v>91.85833333333332</v>
+        <v>90.47033333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08374896350934209</v>
+        <v>0.326879012616119</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>86400</v>
       </c>
       <c r="C15" t="n">
-        <v>91.39033333333334</v>
+        <v>86.398</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210372421090682</v>
+        <v>0.8998310952617715</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>2592000</v>
       </c>
       <c r="C16" t="n">
-        <v>90.57533333333335</v>
+        <v>78.45099999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3937743290543734</v>
+        <v>1.840810238273716</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>31104000</v>
       </c>
       <c r="C17" t="n">
-        <v>89.76633333333334</v>
+        <v>70.42866666666669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5934446524786893</v>
+        <v>2.770496626158486</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>93312000</v>
       </c>
       <c r="C18" t="n">
-        <v>89.32199999999999</v>
+        <v>66.31633333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7427938251403722</v>
+        <v>3.220192006007647</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>1000000000</v>
       </c>
       <c r="C19" t="n">
-        <v>88.24333333333333</v>
+        <v>56.78066666666666</v>
       </c>
       <c r="D19" t="n">
-        <v>1.036041612205912</v>
+        <v>4.21674671860771</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>92.30033333333336</v>
+        <v>92.29566666666668</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004068851871909939</v>
+        <v>0.006155395104208508</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>92.22366666666669</v>
+        <v>91.97466666666666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0584513092715259</v>
+        <v>0.06829999186594975</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>92.181</v>
+        <v>91.87100000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06808573027196411</v>
+        <v>0.06456779382943235</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>3600</v>
       </c>
       <c r="C23" t="n">
-        <v>91.76900000000001</v>
+        <v>90.49300000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1025784252819924</v>
+        <v>0.2529314795222868</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>86400</v>
       </c>
       <c r="C24" t="n">
-        <v>91.24299999999998</v>
+        <v>86.87399999999998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2574898056234438</v>
+        <v>0.8583301618064397</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>2592000</v>
       </c>
       <c r="C25" t="n">
-        <v>90.44799999999999</v>
+        <v>79.81933333333335</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5149653710040428</v>
+        <v>1.846279020685178</v>
       </c>
     </row>
     <row r="26">
@@ -849,10 +849,10 @@
         <v>31104000</v>
       </c>
       <c r="C26" t="n">
-        <v>89.68533333333333</v>
+        <v>72.727</v>
       </c>
       <c r="D26" t="n">
-        <v>0.807199823807933</v>
+        <v>2.832099515671485</v>
       </c>
     </row>
     <row r="27">
@@ -865,10 +865,10 @@
         <v>93312000</v>
       </c>
       <c r="C27" t="n">
-        <v>89.25833333333334</v>
+        <v>69.13266666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9941699497012011</v>
+        <v>3.274919778491613</v>
       </c>
     </row>
     <row r="28">
@@ -881,10 +881,10 @@
         <v>1000000000</v>
       </c>
       <c r="C28" t="n">
-        <v>88.19933333333334</v>
+        <v>60.51733333333333</v>
       </c>
       <c r="D28" t="n">
-        <v>1.341650558909519</v>
+        <v>4.389750132094333</v>
       </c>
     </row>
     <row r="29">
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>92.41566666666668</v>
+        <v>92.39666666666668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00715697018452955</v>
+        <v>0.009067647005824089</v>
       </c>
     </row>
     <row r="30">
@@ -913,10 +913,10 @@
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>92.34600000000002</v>
+        <v>92.29133333333333</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06327716807822471</v>
+        <v>0.05596030339048762</v>
       </c>
     </row>
     <row r="31">
@@ -929,10 +929,10 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>92.34099999999999</v>
+        <v>92.22299999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0639973957803483</v>
+        <v>0.07280796659706951</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         <v>3600</v>
       </c>
       <c r="C32" t="n">
-        <v>92.09999999999999</v>
+        <v>90.66633333333334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09654014708917759</v>
+        <v>0.2262223586552737</v>
       </c>
     </row>
     <row r="33">
@@ -961,10 +961,10 @@
         <v>86400</v>
       </c>
       <c r="C33" t="n">
-        <v>91.62766666666666</v>
+        <v>87.51533333333334</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1999113692503642</v>
+        <v>0.6082419109385857</v>
       </c>
     </row>
     <row r="34">
@@ -977,10 +977,10 @@
         <v>2592000</v>
       </c>
       <c r="C34" t="n">
-        <v>90.86899999999999</v>
+        <v>80.81333333333332</v>
       </c>
       <c r="D34" t="n">
-        <v>0.398332775452887</v>
+        <v>1.517103233871123</v>
       </c>
     </row>
     <row r="35">
@@ -993,10 +993,10 @@
         <v>31104000</v>
       </c>
       <c r="C35" t="n">
-        <v>90.13033333333333</v>
+        <v>73.38066666666666</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6279303747674236</v>
+        <v>2.516621986358344</v>
       </c>
     </row>
     <row r="36">
@@ -1009,10 +1009,10 @@
         <v>93312000</v>
       </c>
       <c r="C36" t="n">
-        <v>89.73366666666666</v>
+        <v>69.40966666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7863141159160804</v>
+        <v>2.981352582674888</v>
       </c>
     </row>
     <row r="37">
@@ -1025,10 +1025,10 @@
         <v>1000000000</v>
       </c>
       <c r="C37" t="n">
-        <v>88.71366666666667</v>
+        <v>59.54733333333332</v>
       </c>
       <c r="D37" t="n">
-        <v>1.125523532504861</v>
+        <v>4.176710773909165</v>
       </c>
     </row>
     <row r="38">
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>92.41133333333332</v>
+        <v>92.40666666666668</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006182412330330159</v>
+        <v>0.007453559924996969</v>
       </c>
     </row>
     <row r="39">
@@ -1057,10 +1057,10 @@
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>92.35500000000002</v>
+        <v>92.29266666666669</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04064070209367128</v>
+        <v>0.05202136313306428</v>
       </c>
     </row>
     <row r="40">
@@ -1073,10 +1073,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>92.333</v>
+        <v>92.23366666666666</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05311308689955815</v>
+        <v>0.06478082706754823</v>
       </c>
     </row>
     <row r="41">
@@ -1089,10 +1089,10 @@
         <v>3600</v>
       </c>
       <c r="C41" t="n">
-        <v>92.15066666666665</v>
+        <v>90.95366666666665</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1283727212282879</v>
+        <v>0.2730382553579044</v>
       </c>
     </row>
     <row r="42">
@@ -1105,10 +1105,10 @@
         <v>86400</v>
       </c>
       <c r="C42" t="n">
-        <v>91.76399999999998</v>
+        <v>87.71833333333332</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2106909268731485</v>
+        <v>0.7662857749488029</v>
       </c>
     </row>
     <row r="43">
@@ -1121,10 +1121,10 @@
         <v>2592000</v>
       </c>
       <c r="C43" t="n">
-        <v>91.03700000000001</v>
+        <v>81.45966666666666</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3998512223315074</v>
+        <v>1.645256785091279</v>
       </c>
     </row>
     <row r="44">
@@ -1137,10 +1137,10 @@
         <v>31104000</v>
       </c>
       <c r="C44" t="n">
-        <v>90.31533333333337</v>
+        <v>74.84899999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5822355384397461</v>
+        <v>2.439754564158725</v>
       </c>
     </row>
     <row r="45">
@@ -1153,10 +1153,10 @@
         <v>93312000</v>
       </c>
       <c r="C45" t="n">
-        <v>89.94166666666666</v>
+        <v>71.286</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6861199279685393</v>
+        <v>2.854486059988149</v>
       </c>
     </row>
     <row r="46">
@@ -1169,10 +1169,10 @@
         <v>1000000000</v>
       </c>
       <c r="C46" t="n">
-        <v>88.95999999999998</v>
+        <v>62.53466666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9779877299843783</v>
+        <v>3.661102505469569</v>
       </c>
     </row>
     <row r="47">
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>92.33300000000001</v>
+        <v>92.33699999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005859465277083211</v>
+        <v>0.00737111479583133</v>
       </c>
     </row>
     <row r="48">
@@ -1201,10 +1201,10 @@
         <v>60</v>
       </c>
       <c r="C48" t="n">
-        <v>92.253</v>
+        <v>92.20399999999998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04282911782109707</v>
+        <v>0.04730045806684439</v>
       </c>
     </row>
     <row r="49">
@@ -1217,10 +1217,10 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>92.23366666666669</v>
+        <v>92.14866666666668</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05706623831614809</v>
+        <v>0.0525187797099497</v>
       </c>
     </row>
     <row r="50">
@@ -1233,10 +1233,10 @@
         <v>3600</v>
       </c>
       <c r="C50" t="n">
-        <v>91.94299999999998</v>
+        <v>90.84033333333333</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08985729426893192</v>
+        <v>0.2305570548813353</v>
       </c>
     </row>
     <row r="51">
@@ -1249,10 +1249,10 @@
         <v>86400</v>
       </c>
       <c r="C51" t="n">
-        <v>91.44</v>
+        <v>88.21233333333333</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2477633279294315</v>
+        <v>0.6696749626166079</v>
       </c>
     </row>
     <row r="52">
@@ -1265,10 +1265,10 @@
         <v>2592000</v>
       </c>
       <c r="C52" t="n">
-        <v>90.64266666666668</v>
+        <v>83.18666666666665</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5091098986357347</v>
+        <v>1.590440889257509</v>
       </c>
     </row>
     <row r="53">
@@ -1281,10 +1281,10 @@
         <v>31104000</v>
       </c>
       <c r="C53" t="n">
-        <v>89.84266666666666</v>
+        <v>77.65266666666666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7708952948069894</v>
+        <v>2.448962955121119</v>
       </c>
     </row>
     <row r="54">
@@ -1297,10 +1297,10 @@
         <v>93312000</v>
       </c>
       <c r="C54" t="n">
-        <v>89.44700000000002</v>
+        <v>74.65533333333333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8915348189124944</v>
+        <v>2.837883875159251</v>
       </c>
     </row>
     <row r="55">
@@ -1313,10 +1313,10 @@
         <v>1000000000</v>
       </c>
       <c r="C55" t="n">
-        <v>88.39766666666667</v>
+        <v>66.98733333333334</v>
       </c>
       <c r="D55" t="n">
-        <v>1.222725598361664</v>
+        <v>3.998103661598694</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_True_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_True_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,865 +458,721 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.0626666666667</v>
+        <v>91.26333333333332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008137703743820772</v>
+        <v>0.01490711984999913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.77800000000001</v>
+        <v>91.08733333333336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04614469994845894</v>
+        <v>0.06185646467607202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>92.64666666666669</v>
+        <v>91.04300000000002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05872724145478651</v>
+        <v>0.05905647015075165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>90.86866666666667</v>
+        <v>89.971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2243618109710791</v>
+        <v>0.3035715182072687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>86.40566666666665</v>
+        <v>87.97466666666668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.821732654551074</v>
+        <v>0.7936402767557162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>76.60499999999999</v>
+        <v>84.39166666666665</v>
       </c>
       <c r="D7" t="n">
-        <v>1.857259181338636</v>
+        <v>1.820133847337121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>65.60566666666666</v>
+        <v>80.75100000000002</v>
       </c>
       <c r="D8" t="n">
-        <v>2.835758197652889</v>
+        <v>2.609741174906047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>59.665</v>
+        <v>78.842</v>
       </c>
       <c r="D9" t="n">
-        <v>3.245384158051761</v>
+        <v>2.992984463708421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>45.82399999999998</v>
+        <v>74.137</v>
       </c>
       <c r="D10" t="n">
-        <v>3.813543933578493</v>
+        <v>3.874263069711883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>92.18499999999999</v>
+        <v>90.361</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0140830867828539</v>
+        <v>0.007895146188214667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>92.10066666666664</v>
+        <v>90.07300000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06381918903346281</v>
+        <v>0.07827941406695894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>92.06366666666666</v>
+        <v>89.99499999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06819009377386784</v>
+        <v>0.08369587803470266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3600</v>
       </c>
       <c r="C14" t="n">
-        <v>90.47033333333334</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.326879012616119</v>
+        <v>0.325371582450999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>86400</v>
       </c>
       <c r="C15" t="n">
-        <v>86.398</v>
+        <v>86.22433333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8998310952617715</v>
+        <v>0.7948277940675085</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2592000</v>
       </c>
       <c r="C16" t="n">
-        <v>78.45099999999999</v>
+        <v>82.37999999999997</v>
       </c>
       <c r="D16" t="n">
-        <v>1.840810238273716</v>
+        <v>1.503012530442333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>31104000</v>
       </c>
       <c r="C17" t="n">
-        <v>70.42866666666669</v>
+        <v>78.69233333333335</v>
       </c>
       <c r="D17" t="n">
-        <v>2.770496626158486</v>
+        <v>2.078843722414512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>93312000</v>
       </c>
       <c r="C18" t="n">
-        <v>66.31633333333333</v>
+        <v>76.88366666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>3.220192006007647</v>
+        <v>2.340282722711556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1000000000</v>
       </c>
       <c r="C19" t="n">
-        <v>56.78066666666666</v>
+        <v>72.62999999999998</v>
       </c>
       <c r="D19" t="n">
-        <v>4.21674671860771</v>
+        <v>2.892376185768374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>92.29566666666668</v>
+        <v>91.52366666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006155395104208508</v>
+        <v>0.01601735170230955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>91.97466666666666</v>
+        <v>91.36133333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06829999186594975</v>
+        <v>0.06344201201797386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>91.87100000000001</v>
+        <v>91.31466666666667</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06456779382943235</v>
+        <v>0.06795750306053103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>3600</v>
       </c>
       <c r="C23" t="n">
-        <v>90.49300000000001</v>
+        <v>90.09666666666666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2529314795222868</v>
+        <v>0.2640622822155578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>86400</v>
       </c>
       <c r="C24" t="n">
-        <v>86.87399999999998</v>
+        <v>87.78866666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8583301618064397</v>
+        <v>0.5968011021735422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2592000</v>
       </c>
       <c r="C25" t="n">
-        <v>79.81933333333335</v>
+        <v>84.08599999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>1.846279020685178</v>
+        <v>1.211039773638064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>31104000</v>
       </c>
       <c r="C26" t="n">
-        <v>72.727</v>
+        <v>80.43233333333335</v>
       </c>
       <c r="D26" t="n">
-        <v>2.832099515671485</v>
+        <v>1.808079429179543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>93312000</v>
       </c>
       <c r="C27" t="n">
-        <v>69.13266666666667</v>
+        <v>78.589</v>
       </c>
       <c r="D27" t="n">
-        <v>3.274919778491613</v>
+        <v>2.196546304239149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1000000000</v>
       </c>
       <c r="C28" t="n">
-        <v>60.51733333333333</v>
+        <v>73.96933333333335</v>
       </c>
       <c r="D28" t="n">
-        <v>4.389750132094333</v>
+        <v>3.194454500467264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>92.39666666666668</v>
+        <v>91.414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.009067647005824089</v>
+        <v>0.008000000000000777</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>92.29133333333333</v>
+        <v>91.32233333333333</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05596030339048762</v>
+        <v>0.05469206726959844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>92.22299999999998</v>
+        <v>91.23399999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07280796659706951</v>
+        <v>0.05981081284628448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3600</v>
       </c>
       <c r="C32" t="n">
-        <v>90.66633333333334</v>
+        <v>90.00033333333334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2262223586552737</v>
+        <v>0.2564304107463765</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>86400</v>
       </c>
       <c r="C33" t="n">
-        <v>87.51533333333334</v>
+        <v>88.11033333333333</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6082419109385857</v>
+        <v>0.7053438089959306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2592000</v>
       </c>
       <c r="C34" t="n">
-        <v>80.81333333333332</v>
+        <v>84.95433333333334</v>
       </c>
       <c r="D34" t="n">
-        <v>1.517103233871123</v>
+        <v>1.375159829094624</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>31104000</v>
       </c>
       <c r="C35" t="n">
-        <v>73.38066666666666</v>
+        <v>81.82033333333334</v>
       </c>
       <c r="D35" t="n">
-        <v>2.516621986358344</v>
+        <v>1.975407946616484</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>93312000</v>
       </c>
       <c r="C36" t="n">
-        <v>69.40966666666667</v>
+        <v>80.13799999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>2.981352582674888</v>
+        <v>2.297899620668113</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1000000000</v>
       </c>
       <c r="C37" t="n">
-        <v>59.54733333333332</v>
+        <v>75.94166666666666</v>
       </c>
       <c r="D37" t="n">
-        <v>4.176710773909165</v>
+        <v>3.038273724044992</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>92.40666666666668</v>
+        <v>91.6403333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.007453559924996969</v>
+        <v>0.007520342781783347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>92.29266666666669</v>
+        <v>91.42366666666663</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05202136313306428</v>
+        <v>0.04826892259921447</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>92.23366666666666</v>
+        <v>91.37566666666665</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06478082706754823</v>
+        <v>0.07074288342692384</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>3600</v>
       </c>
       <c r="C41" t="n">
-        <v>90.95366666666665</v>
+        <v>90.35433333333334</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2730382553579044</v>
+        <v>0.2209024420165808</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>86400</v>
       </c>
       <c r="C42" t="n">
-        <v>87.71833333333332</v>
+        <v>88.40233333333335</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7662857749488029</v>
+        <v>0.4783351916340205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2592000</v>
       </c>
       <c r="C43" t="n">
-        <v>81.45966666666666</v>
+        <v>85.20666666666666</v>
       </c>
       <c r="D43" t="n">
-        <v>1.645256785091279</v>
+        <v>0.9323387557940284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>31104000</v>
       </c>
       <c r="C44" t="n">
-        <v>74.84899999999999</v>
+        <v>82.05199999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>2.439754564158725</v>
+        <v>1.321030910564422</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>93312000</v>
       </c>
       <c r="C45" t="n">
-        <v>71.286</v>
+        <v>80.45933333333332</v>
       </c>
       <c r="D45" t="n">
-        <v>2.854486059988149</v>
+        <v>1.476619863818111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1000000000</v>
       </c>
       <c r="C46" t="n">
-        <v>62.53466666666667</v>
+        <v>76.44800000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>3.661102505469569</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>92.33699999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.00737111479583133</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>60</v>
-      </c>
-      <c r="C48" t="n">
-        <v>92.20399999999998</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.04730045806684439</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>100</v>
-      </c>
-      <c r="C49" t="n">
-        <v>92.14866666666668</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0525187797099497</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C50" t="n">
-        <v>90.84033333333333</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.2305570548813353</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>86400</v>
-      </c>
-      <c r="C51" t="n">
-        <v>88.21233333333333</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.6696749626166079</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2592000</v>
-      </c>
-      <c r="C52" t="n">
-        <v>83.18666666666665</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.590440889257509</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>31104000</v>
-      </c>
-      <c r="C53" t="n">
-        <v>77.65266666666666</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.448962955121119</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>93312000</v>
-      </c>
-      <c r="C54" t="n">
-        <v>74.65533333333333</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.837883875159251</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>66.98733333333334</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.998103661598694</v>
+        <v>1.887220884440044</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_True_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_True_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,145 +458,289 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.07166666666669</v>
+        <v>91.82200000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007781745019951511</v>
+        <v>0.01137248140615423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.87933333333332</v>
+        <v>91.61833333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04739432689913651</v>
+        <v>0.04487637339278632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>92.81099999999998</v>
+        <v>91.5296666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0532509780817842</v>
+        <v>0.05486245427329176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>91.90533333333335</v>
+        <v>90.16799999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1485201071310615</v>
+        <v>0.2357314856639501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>90.44533333333332</v>
+        <v>88.00666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.380935106751209</v>
+        <v>0.5555137762068144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>87.761</v>
+        <v>84.44966666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8830528485506033</v>
+        <v>1.081882567051012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>84.78666666666668</v>
+        <v>81.18033333333332</v>
       </c>
       <c r="D8" t="n">
-        <v>1.426280321520126</v>
+        <v>1.626485953076619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>83.13833333333334</v>
+        <v>79.52133333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>1.732841757217188</v>
+        <v>1.887313316743022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>78.82233333333335</v>
+        <v>75.46133333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>2.565430026763976</v>
+        <v>2.65057947542713</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>92.13799999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01326649916142239</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>91.94166666666666</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06718548123582183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>91.84433333333332</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07246531737474329</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C14" t="n">
+        <v>90.62566666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.283909414348233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86400</v>
+      </c>
+      <c r="C15" t="n">
+        <v>88.57033333333332</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6009020071710711</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2592000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>85.33133333333333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.157643391646245</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>31104000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>82.16666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.686903145477599</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>93312000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>80.55233333333332</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.998368807024592</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>76.65966666666665</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.625520244743041</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_True_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_True_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,289 +458,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>91.82200000000002</v>
+        <v>92.336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01137248140615423</v>
+        <v>0.007999999999999119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>1000000000</v>
       </c>
       <c r="C3" t="n">
-        <v>91.61833333333333</v>
+        <v>83.96000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04487637339278632</v>
+        <v>1.287680084493039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>91.5296666666667</v>
+        <v>93.07399999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05486245427329176</v>
+        <v>0.004898979485568862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3600</v>
+        <v>1000000000</v>
       </c>
       <c r="C5" t="n">
-        <v>90.16799999999999</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2357314856639501</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>86400</v>
-      </c>
-      <c r="C6" t="n">
-        <v>88.00666666666666</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5555137762068144</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2592000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>84.44966666666667</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.081882567051012</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>31104000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>81.18033333333332</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.626485953076619</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>93312000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>79.52133333333333</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.887313316743022</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>75.46133333333333</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.65057947542713</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>92.13799999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01326649916142239</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" t="n">
-        <v>91.94166666666666</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.06718548123582183</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" t="n">
-        <v>91.84433333333332</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.07246531737474329</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C14" t="n">
-        <v>90.62566666666667</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.283909414348233</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>86400</v>
-      </c>
-      <c r="C15" t="n">
-        <v>88.57033333333332</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6009020071710711</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2592000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>85.33133333333333</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.157643391646245</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>31104000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>82.16666666666667</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.686903145477599</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>93312000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>80.55233333333332</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.998368807024592</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>76.65966666666665</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.625520244743041</v>
+        <v>3.141496458696082</v>
       </c>
     </row>
   </sheetData>
